--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roryc\Documents\_Git\comp0087_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DFCC51-095D-4474-BB04-7B03BB8A9110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC627C86-348A-4008-8EEE-D3A452927F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="23">
   <si>
     <t>Summarisation Method</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Multi-Class Classification</t>
+  </si>
+  <si>
+    <t>Graph-based</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
   </sheetPr>
   <dimension ref="A1:H362"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -427,8 +430,9 @@
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
+      <c r="C2" s="2" t="str">
+        <f>VLOOKUP(A2,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -453,8 +457,9 @@
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
+      <c r="C3" s="2" t="str">
+        <f>VLOOKUP(A3,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -479,8 +484,9 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
+      <c r="C4" s="2" t="str">
+        <f>VLOOKUP(A4,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -505,8 +511,9 @@
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
+      <c r="C5" s="2" t="str">
+        <f>VLOOKUP(A5,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -531,8 +538,9 @@
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
+      <c r="C6" s="2" t="str">
+        <f>VLOOKUP(A6,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -557,8 +565,9 @@
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
+      <c r="C7" s="2" t="str">
+        <f>VLOOKUP(A7,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -583,8 +592,9 @@
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
+      <c r="C8" s="2" t="str">
+        <f>VLOOKUP(A8,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
@@ -609,8 +619,9 @@
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
+      <c r="C9" s="2" t="str">
+        <f>VLOOKUP(A9,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -635,8 +646,9 @@
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
+      <c r="C10" s="2" t="str">
+        <f>VLOOKUP(A10,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
@@ -661,8 +673,9 @@
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
+      <c r="C11" s="2" t="str">
+        <f>VLOOKUP(A11,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D11" s="2">
         <v>7</v>
@@ -687,8 +700,9 @@
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
+      <c r="C12" s="2" t="str">
+        <f>VLOOKUP(A12,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D12" s="2">
         <v>8</v>
@@ -713,8 +727,9 @@
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
+      <c r="C13" s="2" t="str">
+        <f>VLOOKUP(A13,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D13" s="2">
         <v>9</v>
@@ -739,8 +754,9 @@
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
+      <c r="C14" s="2" t="str">
+        <f>VLOOKUP(A14,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D14" s="2">
         <v>10</v>
@@ -765,8 +781,9 @@
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
+      <c r="C15" s="2" t="str">
+        <f>VLOOKUP(A15,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D15" s="2">
         <v>11</v>
@@ -791,8 +808,9 @@
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
+      <c r="C16" s="2" t="str">
+        <f>VLOOKUP(A16,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D16" s="2">
         <v>12</v>
@@ -817,8 +835,9 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
+      <c r="C17" s="2" t="str">
+        <f>VLOOKUP(A17,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D17" s="2">
         <v>13</v>
@@ -843,8 +862,9 @@
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
+      <c r="C18" s="2" t="str">
+        <f>VLOOKUP(A18,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D18" s="2">
         <v>14</v>
@@ -869,8 +889,9 @@
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
+      <c r="C19" s="2" t="str">
+        <f>VLOOKUP(A19,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D19" s="2">
         <v>15</v>
@@ -895,8 +916,9 @@
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
+      <c r="C20" s="2" t="str">
+        <f>VLOOKUP(A20,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D20" s="2">
         <v>16</v>
@@ -921,8 +943,9 @@
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
+      <c r="C21" s="2" t="str">
+        <f>VLOOKUP(A21,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D21" s="2">
         <v>17</v>
@@ -947,8 +970,9 @@
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
+      <c r="C22" s="2" t="str">
+        <f>VLOOKUP(A22,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D22" s="2">
         <v>18</v>
@@ -973,8 +997,9 @@
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>17</v>
+      <c r="C23" s="2" t="str">
+        <f>VLOOKUP(A23,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D23" s="2">
         <v>19</v>
@@ -999,8 +1024,9 @@
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
+      <c r="C24" s="2" t="str">
+        <f>VLOOKUP(A24,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D24" s="2">
         <v>20</v>
@@ -1025,8 +1051,9 @@
       <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>17</v>
+      <c r="C25" s="2" t="str">
+        <f>VLOOKUP(A25,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D25" s="2">
         <v>21</v>
@@ -1051,8 +1078,9 @@
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>17</v>
+      <c r="C26" s="2" t="str">
+        <f>VLOOKUP(A26,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D26" s="2">
         <v>22</v>
@@ -1077,8 +1105,9 @@
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>18</v>
+      <c r="C27" s="2" t="str">
+        <f>VLOOKUP(A27,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -1103,8 +1132,9 @@
       <c r="B28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>18</v>
+      <c r="C28" s="2" t="str">
+        <f>VLOOKUP(A28,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -1129,8 +1159,9 @@
       <c r="B29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>18</v>
+      <c r="C29" s="2" t="str">
+        <f>VLOOKUP(A29,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -1155,8 +1186,9 @@
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>18</v>
+      <c r="C30" s="2" t="str">
+        <f>VLOOKUP(A30,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -1181,8 +1213,9 @@
       <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>18</v>
+      <c r="C31" s="2" t="str">
+        <f>VLOOKUP(A31,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
@@ -1207,8 +1240,9 @@
       <c r="B32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>18</v>
+      <c r="C32" s="2" t="str">
+        <f>VLOOKUP(A32,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D32" s="2">
         <v>3</v>
@@ -1233,8 +1267,9 @@
       <c r="B33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>18</v>
+      <c r="C33" s="2" t="str">
+        <f>VLOOKUP(A33,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D33" s="2">
         <v>4</v>
@@ -1259,8 +1294,9 @@
       <c r="B34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>18</v>
+      <c r="C34" s="2" t="str">
+        <f>VLOOKUP(A34,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D34" s="2">
         <v>5</v>
@@ -1285,8 +1321,9 @@
       <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>18</v>
+      <c r="C35" s="2" t="str">
+        <f>VLOOKUP(A35,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D35" s="2">
         <v>6</v>
@@ -1311,8 +1348,9 @@
       <c r="B36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>18</v>
+      <c r="C36" s="2" t="str">
+        <f>VLOOKUP(A36,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D36" s="2">
         <v>7</v>
@@ -1337,8 +1375,9 @@
       <c r="B37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>18</v>
+      <c r="C37" s="2" t="str">
+        <f>VLOOKUP(A37,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D37" s="2">
         <v>8</v>
@@ -1363,8 +1402,9 @@
       <c r="B38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>18</v>
+      <c r="C38" s="2" t="str">
+        <f>VLOOKUP(A38,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D38" s="2">
         <v>9</v>
@@ -1389,8 +1429,9 @@
       <c r="B39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>18</v>
+      <c r="C39" s="2" t="str">
+        <f>VLOOKUP(A39,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D39" s="2">
         <v>10</v>
@@ -1415,8 +1456,9 @@
       <c r="B40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>18</v>
+      <c r="C40" s="2" t="str">
+        <f>VLOOKUP(A40,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D40" s="2">
         <v>11</v>
@@ -1441,8 +1483,9 @@
       <c r="B41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>18</v>
+      <c r="C41" s="2" t="str">
+        <f>VLOOKUP(A41,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D41" s="2">
         <v>12</v>
@@ -1467,8 +1510,9 @@
       <c r="B42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>18</v>
+      <c r="C42" s="2" t="str">
+        <f>VLOOKUP(A42,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D42" s="2">
         <v>13</v>
@@ -1493,8 +1537,9 @@
       <c r="B43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>18</v>
+      <c r="C43" s="2" t="str">
+        <f>VLOOKUP(A43,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D43" s="2">
         <v>14</v>
@@ -1519,8 +1564,9 @@
       <c r="B44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>18</v>
+      <c r="C44" s="2" t="str">
+        <f>VLOOKUP(A44,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D44" s="2">
         <v>15</v>
@@ -1545,8 +1591,9 @@
       <c r="B45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>18</v>
+      <c r="C45" s="2" t="str">
+        <f>VLOOKUP(A45,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D45" s="2">
         <v>16</v>
@@ -1571,8 +1618,9 @@
       <c r="B46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>18</v>
+      <c r="C46" s="2" t="str">
+        <f>VLOOKUP(A46,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D46" s="2">
         <v>17</v>
@@ -1597,8 +1645,9 @@
       <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>18</v>
+      <c r="C47" s="2" t="str">
+        <f>VLOOKUP(A47,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D47" s="2">
         <v>18</v>
@@ -1623,8 +1672,9 @@
       <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>18</v>
+      <c r="C48" s="2" t="str">
+        <f>VLOOKUP(A48,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D48" s="2">
         <v>19</v>
@@ -1649,8 +1699,9 @@
       <c r="B49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>18</v>
+      <c r="C49" s="2" t="str">
+        <f>VLOOKUP(A49,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D49" s="2">
         <v>20</v>
@@ -1675,8 +1726,9 @@
       <c r="B50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>18</v>
+      <c r="C50" s="2" t="str">
+        <f>VLOOKUP(A50,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D50" s="2">
         <v>21</v>
@@ -1701,8 +1753,9 @@
       <c r="B51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>18</v>
+      <c r="C51" s="2" t="str">
+        <f>VLOOKUP(A51,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D51" s="2">
         <v>22</v>
@@ -1727,8 +1780,9 @@
       <c r="B52" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>17</v>
+      <c r="C52" s="2" t="str">
+        <f>VLOOKUP(A52,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D52" s="2">
         <v>0</v>
@@ -1753,8 +1807,9 @@
       <c r="B53" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>17</v>
+      <c r="C53" s="2" t="str">
+        <f>VLOOKUP(A53,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
@@ -1779,8 +1834,9 @@
       <c r="B54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>17</v>
+      <c r="C54" s="2" t="str">
+        <f>VLOOKUP(A54,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D54" s="2">
         <v>0</v>
@@ -1805,8 +1861,9 @@
       <c r="B55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>17</v>
+      <c r="C55" s="2" t="str">
+        <f>VLOOKUP(A55,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -1831,8 +1888,9 @@
       <c r="B56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>17</v>
+      <c r="C56" s="2" t="str">
+        <f>VLOOKUP(A56,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D56" s="2">
         <v>2</v>
@@ -1857,8 +1915,9 @@
       <c r="B57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>17</v>
+      <c r="C57" s="2" t="str">
+        <f>VLOOKUP(A57,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D57" s="2">
         <v>3</v>
@@ -1883,8 +1942,9 @@
       <c r="B58" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>17</v>
+      <c r="C58" s="2" t="str">
+        <f>VLOOKUP(A58,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D58" s="2">
         <v>4</v>
@@ -1909,8 +1969,9 @@
       <c r="B59" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>17</v>
+      <c r="C59" s="2" t="str">
+        <f>VLOOKUP(A59,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D59" s="2">
         <v>5</v>
@@ -1935,8 +1996,9 @@
       <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>17</v>
+      <c r="C60" s="2" t="str">
+        <f>VLOOKUP(A60,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D60" s="2">
         <v>6</v>
@@ -1961,8 +2023,9 @@
       <c r="B61" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>17</v>
+      <c r="C61" s="2" t="str">
+        <f>VLOOKUP(A61,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D61" s="2">
         <v>7</v>
@@ -1987,8 +2050,9 @@
       <c r="B62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>17</v>
+      <c r="C62" s="2" t="str">
+        <f>VLOOKUP(A62,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D62" s="2">
         <v>8</v>
@@ -2013,8 +2077,9 @@
       <c r="B63" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
+      <c r="C63" s="2" t="str">
+        <f>VLOOKUP(A63,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D63" s="2">
         <v>9</v>
@@ -2039,8 +2104,9 @@
       <c r="B64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>17</v>
+      <c r="C64" s="2" t="str">
+        <f>VLOOKUP(A64,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D64" s="2">
         <v>10</v>
@@ -2065,8 +2131,9 @@
       <c r="B65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>17</v>
+      <c r="C65" s="2" t="str">
+        <f>VLOOKUP(A65,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D65" s="2">
         <v>11</v>
@@ -2091,8 +2158,9 @@
       <c r="B66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>17</v>
+      <c r="C66" s="2" t="str">
+        <f>VLOOKUP(A66,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D66" s="2">
         <v>12</v>
@@ -2117,8 +2185,9 @@
       <c r="B67" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
+      <c r="C67" s="2" t="str">
+        <f>VLOOKUP(A67,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D67" s="2">
         <v>13</v>
@@ -2143,8 +2212,9 @@
       <c r="B68" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>17</v>
+      <c r="C68" s="2" t="str">
+        <f>VLOOKUP(A68,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D68" s="2">
         <v>14</v>
@@ -2169,8 +2239,9 @@
       <c r="B69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>17</v>
+      <c r="C69" s="2" t="str">
+        <f>VLOOKUP(A69,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D69" s="2">
         <v>15</v>
@@ -2195,8 +2266,9 @@
       <c r="B70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
+      <c r="C70" s="2" t="str">
+        <f>VLOOKUP(A70,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D70" s="2">
         <v>16</v>
@@ -2221,8 +2293,9 @@
       <c r="B71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>17</v>
+      <c r="C71" s="2" t="str">
+        <f>VLOOKUP(A71,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D71" s="2">
         <v>17</v>
@@ -2247,8 +2320,9 @@
       <c r="B72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>17</v>
+      <c r="C72" s="2" t="str">
+        <f>VLOOKUP(A72,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D72" s="2">
         <v>18</v>
@@ -2273,8 +2347,9 @@
       <c r="B73" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>17</v>
+      <c r="C73" s="2" t="str">
+        <f>VLOOKUP(A73,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D73" s="2">
         <v>19</v>
@@ -2299,8 +2374,9 @@
       <c r="B74" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>17</v>
+      <c r="C74" s="2" t="str">
+        <f>VLOOKUP(A74,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D74" s="2">
         <v>20</v>
@@ -2325,8 +2401,9 @@
       <c r="B75" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>17</v>
+      <c r="C75" s="2" t="str">
+        <f>VLOOKUP(A75,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D75" s="2">
         <v>21</v>
@@ -2351,8 +2428,9 @@
       <c r="B76" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>17</v>
+      <c r="C76" s="2" t="str">
+        <f>VLOOKUP(A76,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D76" s="2">
         <v>22</v>
@@ -2377,8 +2455,9 @@
       <c r="B77" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>18</v>
+      <c r="C77" s="2" t="str">
+        <f>VLOOKUP(A77,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D77" s="2">
         <v>0</v>
@@ -2403,8 +2482,9 @@
       <c r="B78" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>18</v>
+      <c r="C78" s="2" t="str">
+        <f>VLOOKUP(A78,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D78" s="2">
         <v>1</v>
@@ -2429,8 +2509,9 @@
       <c r="B79" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>18</v>
+      <c r="C79" s="2" t="str">
+        <f>VLOOKUP(A79,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D79" s="2">
         <v>0</v>
@@ -2455,8 +2536,9 @@
       <c r="B80" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>18</v>
+      <c r="C80" s="2" t="str">
+        <f>VLOOKUP(A80,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -2481,8 +2563,9 @@
       <c r="B81" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>18</v>
+      <c r="C81" s="2" t="str">
+        <f>VLOOKUP(A81,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D81" s="2">
         <v>2</v>
@@ -2507,8 +2590,9 @@
       <c r="B82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>18</v>
+      <c r="C82" s="2" t="str">
+        <f>VLOOKUP(A82,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D82" s="2">
         <v>3</v>
@@ -2533,8 +2617,9 @@
       <c r="B83" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>18</v>
+      <c r="C83" s="2" t="str">
+        <f>VLOOKUP(A83,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D83" s="2">
         <v>4</v>
@@ -2559,8 +2644,9 @@
       <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>18</v>
+      <c r="C84" s="2" t="str">
+        <f>VLOOKUP(A84,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D84" s="2">
         <v>5</v>
@@ -2585,8 +2671,9 @@
       <c r="B85" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>18</v>
+      <c r="C85" s="2" t="str">
+        <f>VLOOKUP(A85,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D85" s="2">
         <v>6</v>
@@ -2611,8 +2698,9 @@
       <c r="B86" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>18</v>
+      <c r="C86" s="2" t="str">
+        <f>VLOOKUP(A86,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D86" s="2">
         <v>7</v>
@@ -2637,8 +2725,9 @@
       <c r="B87" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>18</v>
+      <c r="C87" s="2" t="str">
+        <f>VLOOKUP(A87,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D87" s="2">
         <v>8</v>
@@ -2663,8 +2752,9 @@
       <c r="B88" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>18</v>
+      <c r="C88" s="2" t="str">
+        <f>VLOOKUP(A88,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D88" s="2">
         <v>9</v>
@@ -2689,8 +2779,9 @@
       <c r="B89" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>18</v>
+      <c r="C89" s="2" t="str">
+        <f>VLOOKUP(A89,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D89" s="2">
         <v>10</v>
@@ -2715,8 +2806,9 @@
       <c r="B90" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>18</v>
+      <c r="C90" s="2" t="str">
+        <f>VLOOKUP(A90,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D90" s="2">
         <v>11</v>
@@ -2741,8 +2833,9 @@
       <c r="B91" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>18</v>
+      <c r="C91" s="2" t="str">
+        <f>VLOOKUP(A91,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D91" s="2">
         <v>12</v>
@@ -2767,8 +2860,9 @@
       <c r="B92" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>18</v>
+      <c r="C92" s="2" t="str">
+        <f>VLOOKUP(A92,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D92" s="2">
         <v>13</v>
@@ -2793,8 +2887,9 @@
       <c r="B93" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>18</v>
+      <c r="C93" s="2" t="str">
+        <f>VLOOKUP(A93,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D93" s="2">
         <v>14</v>
@@ -2819,8 +2914,9 @@
       <c r="B94" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>18</v>
+      <c r="C94" s="2" t="str">
+        <f>VLOOKUP(A94,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D94" s="2">
         <v>15</v>
@@ -2845,8 +2941,9 @@
       <c r="B95" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>18</v>
+      <c r="C95" s="2" t="str">
+        <f>VLOOKUP(A95,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D95" s="2">
         <v>16</v>
@@ -2871,8 +2968,9 @@
       <c r="B96" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>18</v>
+      <c r="C96" s="2" t="str">
+        <f>VLOOKUP(A96,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D96" s="2">
         <v>17</v>
@@ -2897,8 +2995,9 @@
       <c r="B97" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>18</v>
+      <c r="C97" s="2" t="str">
+        <f>VLOOKUP(A97,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D97" s="2">
         <v>18</v>
@@ -2923,8 +3022,9 @@
       <c r="B98" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>18</v>
+      <c r="C98" s="2" t="str">
+        <f>VLOOKUP(A98,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D98" s="2">
         <v>19</v>
@@ -2949,8 +3049,9 @@
       <c r="B99" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>18</v>
+      <c r="C99" s="2" t="str">
+        <f>VLOOKUP(A99,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D99" s="2">
         <v>20</v>
@@ -2975,8 +3076,9 @@
       <c r="B100" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>18</v>
+      <c r="C100" s="2" t="str">
+        <f>VLOOKUP(A100,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D100" s="2">
         <v>21</v>
@@ -3001,8 +3103,9 @@
       <c r="B101" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>18</v>
+      <c r="C101" s="2" t="str">
+        <f>VLOOKUP(A101,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Abstractive</v>
       </c>
       <c r="D101" s="2">
         <v>22</v>
@@ -3027,8 +3130,9 @@
       <c r="B102" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>15</v>
+      <c r="C102" s="2" t="str">
+        <f>VLOOKUP(A102,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D102" s="2">
         <v>0</v>
@@ -3053,8 +3157,9 @@
       <c r="B103" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>15</v>
+      <c r="C103" s="2" t="str">
+        <f>VLOOKUP(A103,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D103" s="2">
         <v>1</v>
@@ -3079,8 +3184,9 @@
       <c r="B104" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>15</v>
+      <c r="C104" s="2" t="str">
+        <f>VLOOKUP(A104,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D104" s="2">
         <v>0</v>
@@ -3105,8 +3211,9 @@
       <c r="B105" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>15</v>
+      <c r="C105" s="2" t="str">
+        <f>VLOOKUP(A105,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D105" s="2">
         <v>1</v>
@@ -3131,8 +3238,9 @@
       <c r="B106" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>15</v>
+      <c r="C106" s="2" t="str">
+        <f>VLOOKUP(A106,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D106" s="2">
         <v>2</v>
@@ -3157,8 +3265,9 @@
       <c r="B107" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>15</v>
+      <c r="C107" s="2" t="str">
+        <f>VLOOKUP(A107,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D107" s="2">
         <v>3</v>
@@ -3183,8 +3292,9 @@
       <c r="B108" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>15</v>
+      <c r="C108" s="2" t="str">
+        <f>VLOOKUP(A108,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D108" s="2">
         <v>4</v>
@@ -3209,8 +3319,9 @@
       <c r="B109" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>15</v>
+      <c r="C109" s="2" t="str">
+        <f>VLOOKUP(A109,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D109" s="2">
         <v>5</v>
@@ -3235,8 +3346,9 @@
       <c r="B110" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>15</v>
+      <c r="C110" s="2" t="str">
+        <f>VLOOKUP(A110,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D110" s="2">
         <v>6</v>
@@ -3261,8 +3373,9 @@
       <c r="B111" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>15</v>
+      <c r="C111" s="2" t="str">
+        <f>VLOOKUP(A111,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D111" s="2">
         <v>7</v>
@@ -3287,8 +3400,9 @@
       <c r="B112" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>15</v>
+      <c r="C112" s="2" t="str">
+        <f>VLOOKUP(A112,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D112" s="2">
         <v>8</v>
@@ -3313,8 +3427,9 @@
       <c r="B113" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>15</v>
+      <c r="C113" s="2" t="str">
+        <f>VLOOKUP(A113,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D113" s="2">
         <v>9</v>
@@ -3339,8 +3454,9 @@
       <c r="B114" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>15</v>
+      <c r="C114" s="2" t="str">
+        <f>VLOOKUP(A114,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D114" s="2">
         <v>10</v>
@@ -3365,8 +3481,9 @@
       <c r="B115" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>15</v>
+      <c r="C115" s="2" t="str">
+        <f>VLOOKUP(A115,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D115" s="2">
         <v>11</v>
@@ -3391,8 +3508,9 @@
       <c r="B116" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>15</v>
+      <c r="C116" s="2" t="str">
+        <f>VLOOKUP(A116,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D116" s="2">
         <v>12</v>
@@ -3417,8 +3535,9 @@
       <c r="B117" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>15</v>
+      <c r="C117" s="2" t="str">
+        <f>VLOOKUP(A117,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D117" s="2">
         <v>13</v>
@@ -3443,8 +3562,9 @@
       <c r="B118" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>15</v>
+      <c r="C118" s="2" t="str">
+        <f>VLOOKUP(A118,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D118" s="2">
         <v>14</v>
@@ -3469,8 +3589,9 @@
       <c r="B119" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>15</v>
+      <c r="C119" s="2" t="str">
+        <f>VLOOKUP(A119,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D119" s="2">
         <v>15</v>
@@ -3495,8 +3616,9 @@
       <c r="B120" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>15</v>
+      <c r="C120" s="2" t="str">
+        <f>VLOOKUP(A120,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D120" s="2">
         <v>16</v>
@@ -3521,8 +3643,9 @@
       <c r="B121" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>15</v>
+      <c r="C121" s="2" t="str">
+        <f>VLOOKUP(A121,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D121" s="2">
         <v>17</v>
@@ -3547,8 +3670,9 @@
       <c r="B122" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>15</v>
+      <c r="C122" s="2" t="str">
+        <f>VLOOKUP(A122,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D122" s="2">
         <v>18</v>
@@ -3573,8 +3697,9 @@
       <c r="B123" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>15</v>
+      <c r="C123" s="2" t="str">
+        <f>VLOOKUP(A123,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D123" s="2">
         <v>19</v>
@@ -3599,8 +3724,9 @@
       <c r="B124" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>15</v>
+      <c r="C124" s="2" t="str">
+        <f>VLOOKUP(A124,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D124" s="2">
         <v>20</v>
@@ -3625,8 +3751,9 @@
       <c r="B125" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>15</v>
+      <c r="C125" s="2" t="str">
+        <f>VLOOKUP(A125,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D125" s="2">
         <v>21</v>
@@ -3651,8 +3778,9 @@
       <c r="B126" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>15</v>
+      <c r="C126" s="2" t="str">
+        <f>VLOOKUP(A126,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>No summarisation</v>
       </c>
       <c r="D126" s="2">
         <v>22</v>
@@ -3677,8 +3805,9 @@
       <c r="B127" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>17</v>
+      <c r="C127" s="2" t="str">
+        <f>VLOOKUP(A127,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D127" s="2">
         <v>0</v>
@@ -3703,8 +3832,9 @@
       <c r="B128" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>17</v>
+      <c r="C128" s="2" t="str">
+        <f>VLOOKUP(A128,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D128" s="2">
         <v>1</v>
@@ -3729,8 +3859,9 @@
       <c r="B129" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>17</v>
+      <c r="C129" s="2" t="str">
+        <f>VLOOKUP(A129,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D129" s="2">
         <v>0</v>
@@ -3755,8 +3886,9 @@
       <c r="B130" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>17</v>
+      <c r="C130" s="2" t="str">
+        <f>VLOOKUP(A130,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D130" s="2">
         <v>1</v>
@@ -3781,8 +3913,9 @@
       <c r="B131" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>17</v>
+      <c r="C131" s="2" t="str">
+        <f>VLOOKUP(A131,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D131" s="2">
         <v>2</v>
@@ -3807,8 +3940,9 @@
       <c r="B132" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>17</v>
+      <c r="C132" s="2" t="str">
+        <f>VLOOKUP(A132,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D132" s="2">
         <v>3</v>
@@ -3833,8 +3967,9 @@
       <c r="B133" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>17</v>
+      <c r="C133" s="2" t="str">
+        <f>VLOOKUP(A133,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D133" s="2">
         <v>4</v>
@@ -3859,8 +3994,9 @@
       <c r="B134" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>17</v>
+      <c r="C134" s="2" t="str">
+        <f>VLOOKUP(A134,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D134" s="2">
         <v>5</v>
@@ -3885,8 +4021,9 @@
       <c r="B135" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>17</v>
+      <c r="C135" s="2" t="str">
+        <f>VLOOKUP(A135,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D135" s="2">
         <v>6</v>
@@ -3911,8 +4048,9 @@
       <c r="B136" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
+      <c r="C136" s="2" t="str">
+        <f>VLOOKUP(A136,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D136" s="2">
         <v>7</v>
@@ -3937,8 +4075,9 @@
       <c r="B137" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>17</v>
+      <c r="C137" s="2" t="str">
+        <f>VLOOKUP(A137,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D137" s="2">
         <v>8</v>
@@ -3963,8 +4102,9 @@
       <c r="B138" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>17</v>
+      <c r="C138" s="2" t="str">
+        <f>VLOOKUP(A138,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D138" s="2">
         <v>9</v>
@@ -3989,8 +4129,9 @@
       <c r="B139" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>17</v>
+      <c r="C139" s="2" t="str">
+        <f>VLOOKUP(A139,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D139" s="2">
         <v>10</v>
@@ -4015,8 +4156,9 @@
       <c r="B140" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>17</v>
+      <c r="C140" s="2" t="str">
+        <f>VLOOKUP(A140,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D140" s="2">
         <v>11</v>
@@ -4041,8 +4183,9 @@
       <c r="B141" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>17</v>
+      <c r="C141" s="2" t="str">
+        <f>VLOOKUP(A141,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D141" s="2">
         <v>12</v>
@@ -4067,8 +4210,9 @@
       <c r="B142" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>17</v>
+      <c r="C142" s="2" t="str">
+        <f>VLOOKUP(A142,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D142" s="2">
         <v>13</v>
@@ -4093,8 +4237,9 @@
       <c r="B143" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>17</v>
+      <c r="C143" s="2" t="str">
+        <f>VLOOKUP(A143,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D143" s="2">
         <v>14</v>
@@ -4119,8 +4264,9 @@
       <c r="B144" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>17</v>
+      <c r="C144" s="2" t="str">
+        <f>VLOOKUP(A144,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D144" s="2">
         <v>15</v>
@@ -4145,8 +4291,9 @@
       <c r="B145" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>17</v>
+      <c r="C145" s="2" t="str">
+        <f>VLOOKUP(A145,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D145" s="2">
         <v>16</v>
@@ -4171,8 +4318,9 @@
       <c r="B146" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>17</v>
+      <c r="C146" s="2" t="str">
+        <f>VLOOKUP(A146,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D146" s="2">
         <v>17</v>
@@ -4197,8 +4345,9 @@
       <c r="B147" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>17</v>
+      <c r="C147" s="2" t="str">
+        <f>VLOOKUP(A147,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D147" s="2">
         <v>18</v>
@@ -4223,8 +4372,9 @@
       <c r="B148" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>17</v>
+      <c r="C148" s="2" t="str">
+        <f>VLOOKUP(A148,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D148" s="2">
         <v>19</v>
@@ -4249,8 +4399,9 @@
       <c r="B149" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>17</v>
+      <c r="C149" s="2" t="str">
+        <f>VLOOKUP(A149,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D149" s="2">
         <v>20</v>
@@ -4275,8 +4426,9 @@
       <c r="B150" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>17</v>
+      <c r="C150" s="2" t="str">
+        <f>VLOOKUP(A150,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D150" s="2">
         <v>21</v>
@@ -4301,8 +4453,9 @@
       <c r="B151" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>17</v>
+      <c r="C151" s="2" t="str">
+        <f>VLOOKUP(A151,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Extractive</v>
       </c>
       <c r="D151" s="2">
         <v>22</v>
@@ -4327,8 +4480,9 @@
       <c r="B152" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>17</v>
+      <c r="C152" s="2" t="str">
+        <f>VLOOKUP(A152,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D152" s="2">
         <v>0</v>
@@ -4353,8 +4507,9 @@
       <c r="B153" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>17</v>
+      <c r="C153" s="2" t="str">
+        <f>VLOOKUP(A153,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D153" s="2">
         <v>1</v>
@@ -4379,8 +4534,9 @@
       <c r="B154" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>17</v>
+      <c r="C154" s="2" t="str">
+        <f>VLOOKUP(A154,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D154" s="2">
         <v>0</v>
@@ -4405,8 +4561,9 @@
       <c r="B155" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>17</v>
+      <c r="C155" s="2" t="str">
+        <f>VLOOKUP(A155,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D155" s="2">
         <v>1</v>
@@ -4431,8 +4588,9 @@
       <c r="B156" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>17</v>
+      <c r="C156" s="2" t="str">
+        <f>VLOOKUP(A156,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D156" s="2">
         <v>2</v>
@@ -4457,8 +4615,9 @@
       <c r="B157" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>17</v>
+      <c r="C157" s="2" t="str">
+        <f>VLOOKUP(A157,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D157" s="2">
         <v>3</v>
@@ -4483,8 +4642,9 @@
       <c r="B158" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>17</v>
+      <c r="C158" s="2" t="str">
+        <f>VLOOKUP(A158,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D158" s="2">
         <v>4</v>
@@ -4509,8 +4669,9 @@
       <c r="B159" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>17</v>
+      <c r="C159" s="2" t="str">
+        <f>VLOOKUP(A159,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D159" s="2">
         <v>5</v>
@@ -4535,8 +4696,9 @@
       <c r="B160" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>17</v>
+      <c r="C160" s="2" t="str">
+        <f>VLOOKUP(A160,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D160" s="2">
         <v>6</v>
@@ -4561,8 +4723,9 @@
       <c r="B161" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>17</v>
+      <c r="C161" s="2" t="str">
+        <f>VLOOKUP(A161,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D161" s="2">
         <v>7</v>
@@ -4587,8 +4750,9 @@
       <c r="B162" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>17</v>
+      <c r="C162" s="2" t="str">
+        <f>VLOOKUP(A162,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D162" s="2">
         <v>8</v>
@@ -4613,8 +4777,9 @@
       <c r="B163" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>17</v>
+      <c r="C163" s="2" t="str">
+        <f>VLOOKUP(A163,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D163" s="2">
         <v>9</v>
@@ -4639,8 +4804,9 @@
       <c r="B164" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>17</v>
+      <c r="C164" s="2" t="str">
+        <f>VLOOKUP(A164,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D164" s="2">
         <v>10</v>
@@ -4665,8 +4831,9 @@
       <c r="B165" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>17</v>
+      <c r="C165" s="2" t="str">
+        <f>VLOOKUP(A165,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D165" s="2">
         <v>11</v>
@@ -4691,8 +4858,9 @@
       <c r="B166" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>17</v>
+      <c r="C166" s="2" t="str">
+        <f>VLOOKUP(A166,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D166" s="2">
         <v>12</v>
@@ -4717,8 +4885,9 @@
       <c r="B167" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>17</v>
+      <c r="C167" s="2" t="str">
+        <f>VLOOKUP(A167,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D167" s="2">
         <v>13</v>
@@ -4743,8 +4912,9 @@
       <c r="B168" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>17</v>
+      <c r="C168" s="2" t="str">
+        <f>VLOOKUP(A168,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D168" s="2">
         <v>14</v>
@@ -4769,8 +4939,9 @@
       <c r="B169" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>17</v>
+      <c r="C169" s="2" t="str">
+        <f>VLOOKUP(A169,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D169" s="2">
         <v>15</v>
@@ -4795,8 +4966,9 @@
       <c r="B170" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>17</v>
+      <c r="C170" s="2" t="str">
+        <f>VLOOKUP(A170,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D170" s="2">
         <v>16</v>
@@ -4821,8 +4993,9 @@
       <c r="B171" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>17</v>
+      <c r="C171" s="2" t="str">
+        <f>VLOOKUP(A171,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D171" s="2">
         <v>17</v>
@@ -4847,8 +5020,9 @@
       <c r="B172" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>17</v>
+      <c r="C172" s="2" t="str">
+        <f>VLOOKUP(A172,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D172" s="2">
         <v>18</v>
@@ -4873,8 +5047,9 @@
       <c r="B173" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>17</v>
+      <c r="C173" s="2" t="str">
+        <f>VLOOKUP(A173,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D173" s="2">
         <v>19</v>
@@ -4899,8 +5074,9 @@
       <c r="B174" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>17</v>
+      <c r="C174" s="2" t="str">
+        <f>VLOOKUP(A174,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D174" s="2">
         <v>20</v>
@@ -4925,8 +5101,9 @@
       <c r="B175" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>17</v>
+      <c r="C175" s="2" t="str">
+        <f>VLOOKUP(A175,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D175" s="2">
         <v>21</v>
@@ -4951,8 +5128,9 @@
       <c r="B176" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>17</v>
+      <c r="C176" s="2" t="str">
+        <f>VLOOKUP(A176,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D176" s="2">
         <v>22</v>
@@ -4977,8 +5155,9 @@
       <c r="B177" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>17</v>
+      <c r="C177" s="2" t="str">
+        <f>VLOOKUP(A177,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D177" s="2">
         <v>0</v>
@@ -5003,8 +5182,9 @@
       <c r="B178" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>17</v>
+      <c r="C178" s="2" t="str">
+        <f>VLOOKUP(A178,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D178" s="2">
         <v>1</v>
@@ -5029,8 +5209,9 @@
       <c r="B179" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>17</v>
+      <c r="C179" s="2" t="str">
+        <f>VLOOKUP(A179,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D179" s="2">
         <v>0</v>
@@ -5055,8 +5236,9 @@
       <c r="B180" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>17</v>
+      <c r="C180" s="2" t="str">
+        <f>VLOOKUP(A180,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D180" s="2">
         <v>1</v>
@@ -5081,8 +5263,9 @@
       <c r="B181" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>17</v>
+      <c r="C181" s="2" t="str">
+        <f>VLOOKUP(A181,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D181" s="2">
         <v>2</v>
@@ -5107,8 +5290,9 @@
       <c r="B182" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>17</v>
+      <c r="C182" s="2" t="str">
+        <f>VLOOKUP(A182,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D182" s="2">
         <v>3</v>
@@ -5133,8 +5317,9 @@
       <c r="B183" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>17</v>
+      <c r="C183" s="2" t="str">
+        <f>VLOOKUP(A183,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D183" s="2">
         <v>4</v>
@@ -5159,8 +5344,9 @@
       <c r="B184" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>17</v>
+      <c r="C184" s="2" t="str">
+        <f>VLOOKUP(A184,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D184" s="2">
         <v>5</v>
@@ -5185,8 +5371,9 @@
       <c r="B185" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>17</v>
+      <c r="C185" s="2" t="str">
+        <f>VLOOKUP(A185,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D185" s="2">
         <v>6</v>
@@ -5211,8 +5398,9 @@
       <c r="B186" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>17</v>
+      <c r="C186" s="2" t="str">
+        <f>VLOOKUP(A186,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D186" s="2">
         <v>7</v>
@@ -5237,8 +5425,9 @@
       <c r="B187" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>17</v>
+      <c r="C187" s="2" t="str">
+        <f>VLOOKUP(A187,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D187" s="2">
         <v>8</v>
@@ -5263,8 +5452,9 @@
       <c r="B188" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>17</v>
+      <c r="C188" s="2" t="str">
+        <f>VLOOKUP(A188,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D188" s="2">
         <v>9</v>
@@ -5289,8 +5479,9 @@
       <c r="B189" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>17</v>
+      <c r="C189" s="2" t="str">
+        <f>VLOOKUP(A189,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D189" s="2">
         <v>10</v>
@@ -5315,8 +5506,9 @@
       <c r="B190" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>17</v>
+      <c r="C190" s="2" t="str">
+        <f>VLOOKUP(A190,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D190" s="2">
         <v>11</v>
@@ -5341,8 +5533,9 @@
       <c r="B191" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>17</v>
+      <c r="C191" s="2" t="str">
+        <f>VLOOKUP(A191,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D191" s="2">
         <v>12</v>
@@ -5367,8 +5560,9 @@
       <c r="B192" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>17</v>
+      <c r="C192" s="2" t="str">
+        <f>VLOOKUP(A192,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D192" s="2">
         <v>13</v>
@@ -5393,8 +5587,9 @@
       <c r="B193" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>17</v>
+      <c r="C193" s="2" t="str">
+        <f>VLOOKUP(A193,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D193" s="2">
         <v>14</v>
@@ -5419,8 +5614,9 @@
       <c r="B194" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>17</v>
+      <c r="C194" s="2" t="str">
+        <f>VLOOKUP(A194,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D194" s="2">
         <v>15</v>
@@ -5445,8 +5641,9 @@
       <c r="B195" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>17</v>
+      <c r="C195" s="2" t="str">
+        <f>VLOOKUP(A195,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D195" s="2">
         <v>16</v>
@@ -5471,8 +5668,9 @@
       <c r="B196" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>17</v>
+      <c r="C196" s="2" t="str">
+        <f>VLOOKUP(A196,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D196" s="2">
         <v>17</v>
@@ -5497,8 +5695,9 @@
       <c r="B197" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>17</v>
+      <c r="C197" s="2" t="str">
+        <f>VLOOKUP(A197,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D197" s="2">
         <v>18</v>
@@ -5523,8 +5722,9 @@
       <c r="B198" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>17</v>
+      <c r="C198" s="2" t="str">
+        <f>VLOOKUP(A198,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D198" s="2">
         <v>19</v>
@@ -5549,8 +5749,9 @@
       <c r="B199" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>17</v>
+      <c r="C199" s="2" t="str">
+        <f>VLOOKUP(A199,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D199" s="2">
         <v>20</v>
@@ -5575,8 +5776,9 @@
       <c r="B200" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>17</v>
+      <c r="C200" s="2" t="str">
+        <f>VLOOKUP(A200,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D200" s="2">
         <v>21</v>
@@ -5601,8 +5803,9 @@
       <c r="B201" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>17</v>
+      <c r="C201" s="2" t="str">
+        <f>VLOOKUP(A201,Regression!$A$2:$B$9,2,FALSE)</f>
+        <v>Graph-based</v>
       </c>
       <c r="D201" s="2">
         <v>22</v>
@@ -5646,9 +5849,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5705,7 +5906,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4">
         <v>0.39910899999999999</v>
@@ -5716,7 +5917,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4">
         <v>0.438527</v>
@@ -5749,7 +5950,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>0.56270200000000004</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roryc\Documents\_Git\comp0087_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC627C86-348A-4008-8EEE-D3A452927F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C67BF90-E65E-4886-B38B-C9E31C2878B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,12 +73,6 @@
     <t>GL-LSTM</t>
   </si>
   <si>
-    <t>LexRank</t>
-  </si>
-  <si>
-    <t>TextRank</t>
-  </si>
-  <si>
     <t>Mean Absolute Error</t>
   </si>
   <si>
@@ -107,6 +101,12 @@
   </si>
   <si>
     <t>Graph-based</t>
+  </si>
+  <si>
+    <t>Text-Rank</t>
+  </si>
+  <si>
+    <t>Lex-Rank</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -425,10 +425,10 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>VLOOKUP(A2,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -452,10 +452,10 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>VLOOKUP(A3,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -479,10 +479,10 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>VLOOKUP(A4,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -506,10 +506,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>VLOOKUP(A5,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -533,10 +533,10 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>VLOOKUP(A6,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -560,10 +560,10 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>VLOOKUP(A7,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -587,10 +587,10 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>VLOOKUP(A8,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -614,10 +614,10 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>VLOOKUP(A9,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -641,10 +641,10 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>VLOOKUP(A10,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -668,10 +668,10 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>VLOOKUP(A11,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -695,10 +695,10 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>VLOOKUP(A12,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -722,10 +722,10 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>VLOOKUP(A13,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -749,10 +749,10 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>VLOOKUP(A14,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -776,10 +776,10 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>VLOOKUP(A15,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -803,10 +803,10 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>VLOOKUP(A16,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -830,10 +830,10 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>VLOOKUP(A17,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -857,10 +857,10 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="str">
         <f>VLOOKUP(A18,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -884,10 +884,10 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="str">
         <f>VLOOKUP(A19,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -911,10 +911,10 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="str">
         <f>VLOOKUP(A20,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -938,10 +938,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="str">
         <f>VLOOKUP(A21,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -965,10 +965,10 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2" t="str">
         <f>VLOOKUP(A22,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -992,10 +992,10 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>VLOOKUP(A23,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="str">
         <f>VLOOKUP(A24,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2" t="str">
         <f>VLOOKUP(A25,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2" t="str">
         <f>VLOOKUP(A26,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1100,10 +1100,10 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2" t="str">
         <f>VLOOKUP(A27,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1127,10 +1127,10 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2" t="str">
         <f>VLOOKUP(A28,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2" t="str">
         <f>VLOOKUP(A29,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2" t="str">
         <f>VLOOKUP(A30,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1208,10 +1208,10 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="2" t="str">
         <f>VLOOKUP(A31,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C32" s="2" t="str">
         <f>VLOOKUP(A32,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C33" s="2" t="str">
         <f>VLOOKUP(A33,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34" s="2" t="str">
         <f>VLOOKUP(A34,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1316,10 +1316,10 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C35" s="2" t="str">
         <f>VLOOKUP(A35,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="36" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C36" s="2" t="str">
         <f>VLOOKUP(A36,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="37" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="2" t="str">
         <f>VLOOKUP(A37,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="38" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38" s="2" t="str">
         <f>VLOOKUP(A38,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1424,10 +1424,10 @@
     </row>
     <row r="39" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C39" s="2" t="str">
         <f>VLOOKUP(A39,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1451,10 +1451,10 @@
     </row>
     <row r="40" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C40" s="2" t="str">
         <f>VLOOKUP(A40,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="41" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C41" s="2" t="str">
         <f>VLOOKUP(A41,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="42" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2" t="str">
         <f>VLOOKUP(A42,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1532,10 +1532,10 @@
     </row>
     <row r="43" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" s="2" t="str">
         <f>VLOOKUP(A43,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="44" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C44" s="2" t="str">
         <f>VLOOKUP(A44,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="45" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C45" s="2" t="str">
         <f>VLOOKUP(A45,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="46" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46" s="2" t="str">
         <f>VLOOKUP(A46,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="47" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C47" s="2" t="str">
         <f>VLOOKUP(A47,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1667,10 +1667,10 @@
     </row>
     <row r="48" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C48" s="2" t="str">
         <f>VLOOKUP(A48,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1694,10 +1694,10 @@
     </row>
     <row r="49" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2" t="str">
         <f>VLOOKUP(A49,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1721,10 +1721,10 @@
     </row>
     <row r="50" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C50" s="2" t="str">
         <f>VLOOKUP(A50,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="51" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C51" s="2" t="str">
         <f>VLOOKUP(A51,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1778,7 +1778,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C52" s="2" t="str">
         <f>VLOOKUP(A52,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1805,7 +1805,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C53" s="2" t="str">
         <f>VLOOKUP(A53,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1832,7 +1832,7 @@
         <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C54" s="2" t="str">
         <f>VLOOKUP(A54,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1859,7 +1859,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C55" s="2" t="str">
         <f>VLOOKUP(A55,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1886,7 +1886,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C56" s="2" t="str">
         <f>VLOOKUP(A56,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1913,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C57" s="2" t="str">
         <f>VLOOKUP(A57,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1940,7 +1940,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C58" s="2" t="str">
         <f>VLOOKUP(A58,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1967,7 +1967,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C59" s="2" t="str">
         <f>VLOOKUP(A59,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C60" s="2" t="str">
         <f>VLOOKUP(A60,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2021,7 +2021,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C61" s="2" t="str">
         <f>VLOOKUP(A61,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2048,7 +2048,7 @@
         <v>7</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62" s="2" t="str">
         <f>VLOOKUP(A62,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2075,7 +2075,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C63" s="2" t="str">
         <f>VLOOKUP(A63,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2102,7 +2102,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C64" s="2" t="str">
         <f>VLOOKUP(A64,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2129,7 +2129,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C65" s="2" t="str">
         <f>VLOOKUP(A65,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2156,7 +2156,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C66" s="2" t="str">
         <f>VLOOKUP(A66,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2183,7 +2183,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C67" s="2" t="str">
         <f>VLOOKUP(A67,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2210,7 +2210,7 @@
         <v>7</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C68" s="2" t="str">
         <f>VLOOKUP(A68,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2237,7 +2237,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C69" s="2" t="str">
         <f>VLOOKUP(A69,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2264,7 +2264,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C70" s="2" t="str">
         <f>VLOOKUP(A70,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2291,7 +2291,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C71" s="2" t="str">
         <f>VLOOKUP(A71,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2318,7 +2318,7 @@
         <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C72" s="2" t="str">
         <f>VLOOKUP(A72,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2345,7 +2345,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C73" s="2" t="str">
         <f>VLOOKUP(A73,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2372,7 +2372,7 @@
         <v>7</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C74" s="2" t="str">
         <f>VLOOKUP(A74,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2399,7 +2399,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C75" s="2" t="str">
         <f>VLOOKUP(A75,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2426,7 +2426,7 @@
         <v>7</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C76" s="2" t="str">
         <f>VLOOKUP(A76,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2453,7 +2453,7 @@
         <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C77" s="2" t="str">
         <f>VLOOKUP(A77,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2480,7 +2480,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C78" s="2" t="str">
         <f>VLOOKUP(A78,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2507,7 +2507,7 @@
         <v>8</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C79" s="2" t="str">
         <f>VLOOKUP(A79,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2534,7 +2534,7 @@
         <v>8</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C80" s="2" t="str">
         <f>VLOOKUP(A80,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2561,7 +2561,7 @@
         <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C81" s="2" t="str">
         <f>VLOOKUP(A81,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2588,7 +2588,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C82" s="2" t="str">
         <f>VLOOKUP(A82,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2615,7 +2615,7 @@
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C83" s="2" t="str">
         <f>VLOOKUP(A83,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2642,7 +2642,7 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C84" s="2" t="str">
         <f>VLOOKUP(A84,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2669,7 +2669,7 @@
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C85" s="2" t="str">
         <f>VLOOKUP(A85,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2696,7 +2696,7 @@
         <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C86" s="2" t="str">
         <f>VLOOKUP(A86,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2723,7 +2723,7 @@
         <v>8</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C87" s="2" t="str">
         <f>VLOOKUP(A87,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2750,7 +2750,7 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C88" s="2" t="str">
         <f>VLOOKUP(A88,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2777,7 +2777,7 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C89" s="2" t="str">
         <f>VLOOKUP(A89,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2804,7 +2804,7 @@
         <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C90" s="2" t="str">
         <f>VLOOKUP(A90,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2831,7 +2831,7 @@
         <v>8</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C91" s="2" t="str">
         <f>VLOOKUP(A91,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2858,7 +2858,7 @@
         <v>8</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C92" s="2" t="str">
         <f>VLOOKUP(A92,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2885,7 +2885,7 @@
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C93" s="2" t="str">
         <f>VLOOKUP(A93,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2912,7 +2912,7 @@
         <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C94" s="2" t="str">
         <f>VLOOKUP(A94,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2939,7 +2939,7 @@
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C95" s="2" t="str">
         <f>VLOOKUP(A95,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2966,7 +2966,7 @@
         <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C96" s="2" t="str">
         <f>VLOOKUP(A96,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -2993,7 +2993,7 @@
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C97" s="2" t="str">
         <f>VLOOKUP(A97,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3020,7 +3020,7 @@
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C98" s="2" t="str">
         <f>VLOOKUP(A98,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3047,7 +3047,7 @@
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C99" s="2" t="str">
         <f>VLOOKUP(A99,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3074,7 +3074,7 @@
         <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C100" s="2" t="str">
         <f>VLOOKUP(A100,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3101,7 +3101,7 @@
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C101" s="2" t="str">
         <f>VLOOKUP(A101,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3128,7 +3128,7 @@
         <v>9</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C102" s="2" t="str">
         <f>VLOOKUP(A102,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3155,7 +3155,7 @@
         <v>9</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C103" s="2" t="str">
         <f>VLOOKUP(A103,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3182,7 +3182,7 @@
         <v>9</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C104" s="2" t="str">
         <f>VLOOKUP(A104,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3209,7 +3209,7 @@
         <v>9</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C105" s="2" t="str">
         <f>VLOOKUP(A105,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3236,7 +3236,7 @@
         <v>9</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C106" s="2" t="str">
         <f>VLOOKUP(A106,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3263,7 +3263,7 @@
         <v>9</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C107" s="2" t="str">
         <f>VLOOKUP(A107,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3290,7 +3290,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C108" s="2" t="str">
         <f>VLOOKUP(A108,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3317,7 +3317,7 @@
         <v>9</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C109" s="2" t="str">
         <f>VLOOKUP(A109,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3344,7 +3344,7 @@
         <v>9</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C110" s="2" t="str">
         <f>VLOOKUP(A110,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3371,7 +3371,7 @@
         <v>9</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C111" s="2" t="str">
         <f>VLOOKUP(A111,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3398,7 +3398,7 @@
         <v>9</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C112" s="2" t="str">
         <f>VLOOKUP(A112,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3425,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C113" s="2" t="str">
         <f>VLOOKUP(A113,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3452,7 +3452,7 @@
         <v>9</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C114" s="2" t="str">
         <f>VLOOKUP(A114,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3479,7 +3479,7 @@
         <v>9</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C115" s="2" t="str">
         <f>VLOOKUP(A115,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3506,7 +3506,7 @@
         <v>9</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C116" s="2" t="str">
         <f>VLOOKUP(A116,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3533,7 +3533,7 @@
         <v>9</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C117" s="2" t="str">
         <f>VLOOKUP(A117,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3560,7 +3560,7 @@
         <v>9</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C118" s="2" t="str">
         <f>VLOOKUP(A118,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3587,7 +3587,7 @@
         <v>9</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C119" s="2" t="str">
         <f>VLOOKUP(A119,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3614,7 +3614,7 @@
         <v>9</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C120" s="2" t="str">
         <f>VLOOKUP(A120,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3641,7 +3641,7 @@
         <v>9</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C121" s="2" t="str">
         <f>VLOOKUP(A121,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3668,7 +3668,7 @@
         <v>9</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C122" s="2" t="str">
         <f>VLOOKUP(A122,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3695,7 +3695,7 @@
         <v>9</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C123" s="2" t="str">
         <f>VLOOKUP(A123,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3722,7 +3722,7 @@
         <v>9</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C124" s="2" t="str">
         <f>VLOOKUP(A124,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3749,7 +3749,7 @@
         <v>9</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C125" s="2" t="str">
         <f>VLOOKUP(A125,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3776,7 +3776,7 @@
         <v>9</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C126" s="2" t="str">
         <f>VLOOKUP(A126,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3803,7 +3803,7 @@
         <v>10</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C127" s="2" t="str">
         <f>VLOOKUP(A127,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3830,7 +3830,7 @@
         <v>10</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C128" s="2" t="str">
         <f>VLOOKUP(A128,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3857,7 +3857,7 @@
         <v>10</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C129" s="2" t="str">
         <f>VLOOKUP(A129,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3884,7 +3884,7 @@
         <v>10</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C130" s="2" t="str">
         <f>VLOOKUP(A130,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3911,7 +3911,7 @@
         <v>10</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C131" s="2" t="str">
         <f>VLOOKUP(A131,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3938,7 +3938,7 @@
         <v>10</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C132" s="2" t="str">
         <f>VLOOKUP(A132,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3965,7 +3965,7 @@
         <v>10</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C133" s="2" t="str">
         <f>VLOOKUP(A133,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -3992,7 +3992,7 @@
         <v>10</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C134" s="2" t="str">
         <f>VLOOKUP(A134,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4019,7 +4019,7 @@
         <v>10</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C135" s="2" t="str">
         <f>VLOOKUP(A135,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4046,7 +4046,7 @@
         <v>10</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C136" s="2" t="str">
         <f>VLOOKUP(A136,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4073,7 +4073,7 @@
         <v>10</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C137" s="2" t="str">
         <f>VLOOKUP(A137,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4100,7 +4100,7 @@
         <v>10</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C138" s="2" t="str">
         <f>VLOOKUP(A138,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4127,7 +4127,7 @@
         <v>10</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C139" s="2" t="str">
         <f>VLOOKUP(A139,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4154,7 +4154,7 @@
         <v>10</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C140" s="2" t="str">
         <f>VLOOKUP(A140,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4181,7 +4181,7 @@
         <v>10</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C141" s="2" t="str">
         <f>VLOOKUP(A141,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4208,7 +4208,7 @@
         <v>10</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C142" s="2" t="str">
         <f>VLOOKUP(A142,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4235,7 +4235,7 @@
         <v>10</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C143" s="2" t="str">
         <f>VLOOKUP(A143,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4262,7 +4262,7 @@
         <v>10</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C144" s="2" t="str">
         <f>VLOOKUP(A144,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4289,7 +4289,7 @@
         <v>10</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C145" s="2" t="str">
         <f>VLOOKUP(A145,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4316,7 +4316,7 @@
         <v>10</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C146" s="2" t="str">
         <f>VLOOKUP(A146,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4343,7 +4343,7 @@
         <v>10</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C147" s="2" t="str">
         <f>VLOOKUP(A147,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4370,7 +4370,7 @@
         <v>10</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C148" s="2" t="str">
         <f>VLOOKUP(A148,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4397,7 +4397,7 @@
         <v>10</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C149" s="2" t="str">
         <f>VLOOKUP(A149,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4424,7 +4424,7 @@
         <v>10</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C150" s="2" t="str">
         <f>VLOOKUP(A150,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4451,7 +4451,7 @@
         <v>10</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C151" s="2" t="str">
         <f>VLOOKUP(A151,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4475,10 +4475,10 @@
     </row>
     <row r="152" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C152" s="2" t="str">
         <f>VLOOKUP(A152,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4502,10 +4502,10 @@
     </row>
     <row r="153" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C153" s="2" t="str">
         <f>VLOOKUP(A153,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4529,10 +4529,10 @@
     </row>
     <row r="154" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C154" s="2" t="str">
         <f>VLOOKUP(A154,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4556,10 +4556,10 @@
     </row>
     <row r="155" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C155" s="2" t="str">
         <f>VLOOKUP(A155,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4583,10 +4583,10 @@
     </row>
     <row r="156" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C156" s="2" t="str">
         <f>VLOOKUP(A156,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4610,10 +4610,10 @@
     </row>
     <row r="157" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C157" s="2" t="str">
         <f>VLOOKUP(A157,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4637,10 +4637,10 @@
     </row>
     <row r="158" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C158" s="2" t="str">
         <f>VLOOKUP(A158,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4664,10 +4664,10 @@
     </row>
     <row r="159" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C159" s="2" t="str">
         <f>VLOOKUP(A159,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4691,10 +4691,10 @@
     </row>
     <row r="160" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C160" s="2" t="str">
         <f>VLOOKUP(A160,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4718,10 +4718,10 @@
     </row>
     <row r="161" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C161" s="2" t="str">
         <f>VLOOKUP(A161,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4745,10 +4745,10 @@
     </row>
     <row r="162" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C162" s="2" t="str">
         <f>VLOOKUP(A162,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4772,10 +4772,10 @@
     </row>
     <row r="163" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C163" s="2" t="str">
         <f>VLOOKUP(A163,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4799,10 +4799,10 @@
     </row>
     <row r="164" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C164" s="2" t="str">
         <f>VLOOKUP(A164,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4826,10 +4826,10 @@
     </row>
     <row r="165" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C165" s="2" t="str">
         <f>VLOOKUP(A165,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4853,10 +4853,10 @@
     </row>
     <row r="166" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C166" s="2" t="str">
         <f>VLOOKUP(A166,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="167" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C167" s="2" t="str">
         <f>VLOOKUP(A167,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4907,10 +4907,10 @@
     </row>
     <row r="168" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C168" s="2" t="str">
         <f>VLOOKUP(A168,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4934,10 +4934,10 @@
     </row>
     <row r="169" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C169" s="2" t="str">
         <f>VLOOKUP(A169,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4961,10 +4961,10 @@
     </row>
     <row r="170" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C170" s="2" t="str">
         <f>VLOOKUP(A170,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -4988,10 +4988,10 @@
     </row>
     <row r="171" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C171" s="2" t="str">
         <f>VLOOKUP(A171,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5015,10 +5015,10 @@
     </row>
     <row r="172" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C172" s="2" t="str">
         <f>VLOOKUP(A172,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5042,10 +5042,10 @@
     </row>
     <row r="173" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C173" s="2" t="str">
         <f>VLOOKUP(A173,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5069,10 +5069,10 @@
     </row>
     <row r="174" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C174" s="2" t="str">
         <f>VLOOKUP(A174,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5096,10 +5096,10 @@
     </row>
     <row r="175" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C175" s="2" t="str">
         <f>VLOOKUP(A175,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5123,10 +5123,10 @@
     </row>
     <row r="176" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C176" s="2" t="str">
         <f>VLOOKUP(A176,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5150,10 +5150,10 @@
     </row>
     <row r="177" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C177" s="2" t="str">
         <f>VLOOKUP(A177,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5177,10 +5177,10 @@
     </row>
     <row r="178" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C178" s="2" t="str">
         <f>VLOOKUP(A178,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5204,10 +5204,10 @@
     </row>
     <row r="179" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C179" s="2" t="str">
         <f>VLOOKUP(A179,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5231,10 +5231,10 @@
     </row>
     <row r="180" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C180" s="2" t="str">
         <f>VLOOKUP(A180,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5258,10 +5258,10 @@
     </row>
     <row r="181" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C181" s="2" t="str">
         <f>VLOOKUP(A181,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5285,10 +5285,10 @@
     </row>
     <row r="182" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C182" s="2" t="str">
         <f>VLOOKUP(A182,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5312,10 +5312,10 @@
     </row>
     <row r="183" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C183" s="2" t="str">
         <f>VLOOKUP(A183,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5339,10 +5339,10 @@
     </row>
     <row r="184" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C184" s="2" t="str">
         <f>VLOOKUP(A184,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5366,10 +5366,10 @@
     </row>
     <row r="185" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C185" s="2" t="str">
         <f>VLOOKUP(A185,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5393,10 +5393,10 @@
     </row>
     <row r="186" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C186" s="2" t="str">
         <f>VLOOKUP(A186,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5420,10 +5420,10 @@
     </row>
     <row r="187" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C187" s="2" t="str">
         <f>VLOOKUP(A187,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5447,10 +5447,10 @@
     </row>
     <row r="188" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C188" s="2" t="str">
         <f>VLOOKUP(A188,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5474,10 +5474,10 @@
     </row>
     <row r="189" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C189" s="2" t="str">
         <f>VLOOKUP(A189,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5501,10 +5501,10 @@
     </row>
     <row r="190" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C190" s="2" t="str">
         <f>VLOOKUP(A190,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5528,10 +5528,10 @@
     </row>
     <row r="191" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C191" s="2" t="str">
         <f>VLOOKUP(A191,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5555,10 +5555,10 @@
     </row>
     <row r="192" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C192" s="2" t="str">
         <f>VLOOKUP(A192,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5582,10 +5582,10 @@
     </row>
     <row r="193" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C193" s="2" t="str">
         <f>VLOOKUP(A193,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5609,10 +5609,10 @@
     </row>
     <row r="194" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C194" s="2" t="str">
         <f>VLOOKUP(A194,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5636,10 +5636,10 @@
     </row>
     <row r="195" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C195" s="2" t="str">
         <f>VLOOKUP(A195,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5663,10 +5663,10 @@
     </row>
     <row r="196" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C196" s="2" t="str">
         <f>VLOOKUP(A196,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="197" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C197" s="2" t="str">
         <f>VLOOKUP(A197,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5717,10 +5717,10 @@
     </row>
     <row r="198" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C198" s="2" t="str">
         <f>VLOOKUP(A198,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5744,10 +5744,10 @@
     </row>
     <row r="199" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C199" s="2" t="str">
         <f>VLOOKUP(A199,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5771,10 +5771,10 @@
     </row>
     <row r="200" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C200" s="2" t="str">
         <f>VLOOKUP(A200,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5798,10 +5798,10 @@
     </row>
     <row r="201" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C201" s="2" t="str">
         <f>VLOOKUP(A201,Regression!$A$2:$B$9,2,FALSE)</f>
@@ -5862,10 +5862,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5873,7 +5873,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>0.38022699999999998</v>
@@ -5881,10 +5881,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>0.39011699999999999</v>
@@ -5895,7 +5895,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>0.39208500000000002</v>
@@ -5903,10 +5903,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4">
         <v>0.39910899999999999</v>
@@ -5914,10 +5914,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4">
         <v>0.438527</v>
@@ -5928,7 +5928,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>0.45152700000000001</v>
@@ -5936,10 +5936,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>0.47158499999999998</v>
@@ -5950,7 +5950,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>0.56270200000000004</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roryc\Documents\_Git\comp0087_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C67BF90-E65E-4886-B38B-C9E31C2878B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E30DCB-BBC5-4910-8427-205770B9A18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classification!$A$1:$H$201</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression!$A$1:$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="24">
   <si>
     <t>Summarisation Method</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Long T5</t>
-  </si>
-  <si>
-    <t>ECHR Truncation</t>
   </si>
   <si>
     <t>GL-LSTM</t>
@@ -103,10 +100,16 @@
     <t>Graph-based</t>
   </si>
   <si>
-    <t>Text-Rank</t>
+    <t>Truncation</t>
   </si>
   <si>
-    <t>Lex-Rank</t>
+    <t>Truncation (End)</t>
+  </si>
+  <si>
+    <t>LexRank</t>
+  </si>
+  <si>
+    <t>TextRank</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,9 @@
   </sheetPr>
   <dimension ref="A1:H362"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -405,7 +410,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -425,13 +430,13 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="2" t="str">
-        <f>VLOOKUP(A2,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A2,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D2" s="2">
@@ -452,13 +457,13 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" s="2" t="str">
-        <f>VLOOKUP(A3,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A3,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D3" s="2">
@@ -479,13 +484,13 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>VLOOKUP(A4,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A4,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D4" s="2">
@@ -506,13 +511,13 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>VLOOKUP(A5,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A5,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D5" s="2">
@@ -533,13 +538,13 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>VLOOKUP(A6,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A6,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D6" s="2">
@@ -560,13 +565,13 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>VLOOKUP(A7,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A7,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D7" s="2">
@@ -587,13 +592,13 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>VLOOKUP(A8,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A8,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D8" s="2">
@@ -614,13 +619,13 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>VLOOKUP(A9,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A9,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D9" s="2">
@@ -641,13 +646,13 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>VLOOKUP(A10,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A10,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D10" s="2">
@@ -668,13 +673,13 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>VLOOKUP(A11,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A11,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D11" s="2">
@@ -695,13 +700,13 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>VLOOKUP(A12,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A12,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D12" s="2">
@@ -722,13 +727,13 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>VLOOKUP(A13,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A13,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D13" s="2">
@@ -749,13 +754,13 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>VLOOKUP(A14,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A14,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D14" s="2">
@@ -776,13 +781,13 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>VLOOKUP(A15,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A15,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D15" s="2">
@@ -803,13 +808,13 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>VLOOKUP(A16,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A16,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D16" s="2">
@@ -830,13 +835,13 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f>VLOOKUP(A17,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A17,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D17" s="2">
@@ -857,13 +862,13 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>VLOOKUP(A18,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A18,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D18" s="2">
@@ -884,13 +889,13 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f>VLOOKUP(A19,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A19,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D19" s="2">
@@ -911,13 +916,13 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f>VLOOKUP(A20,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A20,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D20" s="2">
@@ -938,13 +943,13 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f>VLOOKUP(A21,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A21,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D21" s="2">
@@ -965,13 +970,13 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f>VLOOKUP(A22,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A22,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D22" s="2">
@@ -992,13 +997,13 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f>VLOOKUP(A23,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A23,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D23" s="2">
@@ -1019,13 +1024,13 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>VLOOKUP(A24,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A24,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D24" s="2">
@@ -1046,13 +1051,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f>VLOOKUP(A25,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A25,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D25" s="2">
@@ -1073,13 +1078,13 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f>VLOOKUP(A26,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A26,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D26" s="2">
@@ -1100,13 +1105,13 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f>VLOOKUP(A27,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A27,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D27" s="2">
@@ -1127,13 +1132,13 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f>VLOOKUP(A28,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A28,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D28" s="2">
@@ -1154,13 +1159,13 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f>VLOOKUP(A29,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A29,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D29" s="2">
@@ -1181,13 +1186,13 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f>VLOOKUP(A30,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A30,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D30" s="2">
@@ -1208,13 +1213,13 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f>VLOOKUP(A31,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A31,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D31" s="2">
@@ -1235,13 +1240,13 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f>VLOOKUP(A32,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A32,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D32" s="2">
@@ -1262,13 +1267,13 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f>VLOOKUP(A33,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A33,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D33" s="2">
@@ -1289,13 +1294,13 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f>VLOOKUP(A34,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A34,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D34" s="2">
@@ -1316,13 +1321,13 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f>VLOOKUP(A35,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A35,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D35" s="2">
@@ -1343,13 +1348,13 @@
     </row>
     <row r="36" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f>VLOOKUP(A36,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A36,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D36" s="2">
@@ -1370,13 +1375,13 @@
     </row>
     <row r="37" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f>VLOOKUP(A37,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A37,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D37" s="2">
@@ -1397,13 +1402,13 @@
     </row>
     <row r="38" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f>VLOOKUP(A38,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A38,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D38" s="2">
@@ -1424,13 +1429,13 @@
     </row>
     <row r="39" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f>VLOOKUP(A39,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A39,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D39" s="2">
@@ -1451,13 +1456,13 @@
     </row>
     <row r="40" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f>VLOOKUP(A40,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A40,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D40" s="2">
@@ -1478,13 +1483,13 @@
     </row>
     <row r="41" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f>VLOOKUP(A41,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A41,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D41" s="2">
@@ -1505,13 +1510,13 @@
     </row>
     <row r="42" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f>VLOOKUP(A42,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A42,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D42" s="2">
@@ -1532,13 +1537,13 @@
     </row>
     <row r="43" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f>VLOOKUP(A43,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A43,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D43" s="2">
@@ -1559,13 +1564,13 @@
     </row>
     <row r="44" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f>VLOOKUP(A44,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A44,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D44" s="2">
@@ -1586,13 +1591,13 @@
     </row>
     <row r="45" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f>VLOOKUP(A45,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A45,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D45" s="2">
@@ -1613,13 +1618,13 @@
     </row>
     <row r="46" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f>VLOOKUP(A46,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A46,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D46" s="2">
@@ -1640,13 +1645,13 @@
     </row>
     <row r="47" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f>VLOOKUP(A47,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A47,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D47" s="2">
@@ -1667,13 +1672,13 @@
     </row>
     <row r="48" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f>VLOOKUP(A48,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A48,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D48" s="2">
@@ -1694,13 +1699,13 @@
     </row>
     <row r="49" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" s="2" t="str">
-        <f>VLOOKUP(A49,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A49,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D49" s="2">
@@ -1721,13 +1726,13 @@
     </row>
     <row r="50" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2" t="str">
-        <f>VLOOKUP(A50,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A50,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D50" s="2">
@@ -1748,13 +1753,13 @@
     </row>
     <row r="51" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="str">
-        <f>VLOOKUP(A51,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A51,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D51" s="2">
@@ -1778,10 +1783,10 @@
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52" s="2" t="str">
-        <f>VLOOKUP(A52,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A52,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D52" s="2">
@@ -1805,10 +1810,10 @@
         <v>7</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" s="2" t="str">
-        <f>VLOOKUP(A53,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A53,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D53" s="2">
@@ -1832,10 +1837,10 @@
         <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54" s="2" t="str">
-        <f>VLOOKUP(A54,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A54,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D54" s="2">
@@ -1859,10 +1864,10 @@
         <v>7</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" s="2" t="str">
-        <f>VLOOKUP(A55,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A55,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D55" s="2">
@@ -1886,10 +1891,10 @@
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" s="2" t="str">
-        <f>VLOOKUP(A56,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A56,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D56" s="2">
@@ -1913,10 +1918,10 @@
         <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C57" s="2" t="str">
-        <f>VLOOKUP(A57,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A57,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D57" s="2">
@@ -1940,10 +1945,10 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" s="2" t="str">
-        <f>VLOOKUP(A58,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A58,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D58" s="2">
@@ -1967,10 +1972,10 @@
         <v>7</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" s="2" t="str">
-        <f>VLOOKUP(A59,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A59,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D59" s="2">
@@ -1994,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C60" s="2" t="str">
-        <f>VLOOKUP(A60,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A60,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D60" s="2">
@@ -2021,10 +2026,10 @@
         <v>7</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61" s="2" t="str">
-        <f>VLOOKUP(A61,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A61,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D61" s="2">
@@ -2048,10 +2053,10 @@
         <v>7</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" s="2" t="str">
-        <f>VLOOKUP(A62,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A62,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D62" s="2">
@@ -2075,10 +2080,10 @@
         <v>7</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63" s="2" t="str">
-        <f>VLOOKUP(A63,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A63,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D63" s="2">
@@ -2102,10 +2107,10 @@
         <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C64" s="2" t="str">
-        <f>VLOOKUP(A64,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A64,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D64" s="2">
@@ -2129,10 +2134,10 @@
         <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65" s="2" t="str">
-        <f>VLOOKUP(A65,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A65,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D65" s="2">
@@ -2156,10 +2161,10 @@
         <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C66" s="2" t="str">
-        <f>VLOOKUP(A66,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A66,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D66" s="2">
@@ -2183,10 +2188,10 @@
         <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C67" s="2" t="str">
-        <f>VLOOKUP(A67,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A67,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D67" s="2">
@@ -2210,10 +2215,10 @@
         <v>7</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C68" s="2" t="str">
-        <f>VLOOKUP(A68,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A68,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D68" s="2">
@@ -2237,10 +2242,10 @@
         <v>7</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69" s="2" t="str">
-        <f>VLOOKUP(A69,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A69,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D69" s="2">
@@ -2264,10 +2269,10 @@
         <v>7</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C70" s="2" t="str">
-        <f>VLOOKUP(A70,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A70,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D70" s="2">
@@ -2291,10 +2296,10 @@
         <v>7</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C71" s="2" t="str">
-        <f>VLOOKUP(A71,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A71,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D71" s="2">
@@ -2318,10 +2323,10 @@
         <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C72" s="2" t="str">
-        <f>VLOOKUP(A72,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A72,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D72" s="2">
@@ -2345,10 +2350,10 @@
         <v>7</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73" s="2" t="str">
-        <f>VLOOKUP(A73,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A73,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D73" s="2">
@@ -2372,10 +2377,10 @@
         <v>7</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74" s="2" t="str">
-        <f>VLOOKUP(A74,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A74,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D74" s="2">
@@ -2399,10 +2404,10 @@
         <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C75" s="2" t="str">
-        <f>VLOOKUP(A75,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A75,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D75" s="2">
@@ -2426,10 +2431,10 @@
         <v>7</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C76" s="2" t="str">
-        <f>VLOOKUP(A76,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A76,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D76" s="2">
@@ -2453,10 +2458,10 @@
         <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" s="2" t="str">
-        <f>VLOOKUP(A77,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A77,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D77" s="2">
@@ -2480,10 +2485,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C78" s="2" t="str">
-        <f>VLOOKUP(A78,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A78,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D78" s="2">
@@ -2507,10 +2512,10 @@
         <v>8</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79" s="2" t="str">
-        <f>VLOOKUP(A79,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A79,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D79" s="2">
@@ -2534,10 +2539,10 @@
         <v>8</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C80" s="2" t="str">
-        <f>VLOOKUP(A80,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A80,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D80" s="2">
@@ -2561,10 +2566,10 @@
         <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C81" s="2" t="str">
-        <f>VLOOKUP(A81,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A81,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D81" s="2">
@@ -2588,10 +2593,10 @@
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C82" s="2" t="str">
-        <f>VLOOKUP(A82,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A82,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D82" s="2">
@@ -2615,10 +2620,10 @@
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C83" s="2" t="str">
-        <f>VLOOKUP(A83,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A83,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D83" s="2">
@@ -2642,10 +2647,10 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C84" s="2" t="str">
-        <f>VLOOKUP(A84,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A84,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D84" s="2">
@@ -2669,10 +2674,10 @@
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C85" s="2" t="str">
-        <f>VLOOKUP(A85,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A85,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D85" s="2">
@@ -2696,10 +2701,10 @@
         <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C86" s="2" t="str">
-        <f>VLOOKUP(A86,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A86,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D86" s="2">
@@ -2723,10 +2728,10 @@
         <v>8</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C87" s="2" t="str">
-        <f>VLOOKUP(A87,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A87,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D87" s="2">
@@ -2750,10 +2755,10 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C88" s="2" t="str">
-        <f>VLOOKUP(A88,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A88,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D88" s="2">
@@ -2777,10 +2782,10 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C89" s="2" t="str">
-        <f>VLOOKUP(A89,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A89,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D89" s="2">
@@ -2804,10 +2809,10 @@
         <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C90" s="2" t="str">
-        <f>VLOOKUP(A90,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A90,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D90" s="2">
@@ -2831,10 +2836,10 @@
         <v>8</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C91" s="2" t="str">
-        <f>VLOOKUP(A91,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A91,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D91" s="2">
@@ -2858,10 +2863,10 @@
         <v>8</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C92" s="2" t="str">
-        <f>VLOOKUP(A92,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A92,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D92" s="2">
@@ -2885,10 +2890,10 @@
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C93" s="2" t="str">
-        <f>VLOOKUP(A93,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A93,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D93" s="2">
@@ -2912,10 +2917,10 @@
         <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C94" s="2" t="str">
-        <f>VLOOKUP(A94,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A94,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D94" s="2">
@@ -2939,10 +2944,10 @@
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C95" s="2" t="str">
-        <f>VLOOKUP(A95,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A95,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D95" s="2">
@@ -2966,10 +2971,10 @@
         <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C96" s="2" t="str">
-        <f>VLOOKUP(A96,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A96,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D96" s="2">
@@ -2993,10 +2998,10 @@
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C97" s="2" t="str">
-        <f>VLOOKUP(A97,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A97,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D97" s="2">
@@ -3020,10 +3025,10 @@
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C98" s="2" t="str">
-        <f>VLOOKUP(A98,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A98,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D98" s="2">
@@ -3047,10 +3052,10 @@
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C99" s="2" t="str">
-        <f>VLOOKUP(A99,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A99,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D99" s="2">
@@ -3074,10 +3079,10 @@
         <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C100" s="2" t="str">
-        <f>VLOOKUP(A100,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A100,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D100" s="2">
@@ -3101,10 +3106,10 @@
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C101" s="2" t="str">
-        <f>VLOOKUP(A101,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A101,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Abstractive</v>
       </c>
       <c r="D101" s="2">
@@ -3125,13 +3130,13 @@
     </row>
     <row r="102" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C102" s="2" t="str">
-        <f>VLOOKUP(A102,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A102,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D102" s="2">
@@ -3152,13 +3157,13 @@
     </row>
     <row r="103" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C103" s="2" t="str">
-        <f>VLOOKUP(A103,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A103,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D103" s="2">
@@ -3179,13 +3184,13 @@
     </row>
     <row r="104" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C104" s="2" t="str">
-        <f>VLOOKUP(A104,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A104,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D104" s="2">
@@ -3206,13 +3211,13 @@
     </row>
     <row r="105" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C105" s="2" t="str">
-        <f>VLOOKUP(A105,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A105,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D105" s="2">
@@ -3233,13 +3238,13 @@
     </row>
     <row r="106" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C106" s="2" t="str">
-        <f>VLOOKUP(A106,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A106,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D106" s="2">
@@ -3260,13 +3265,13 @@
     </row>
     <row r="107" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C107" s="2" t="str">
-        <f>VLOOKUP(A107,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A107,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D107" s="2">
@@ -3287,13 +3292,13 @@
     </row>
     <row r="108" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C108" s="2" t="str">
-        <f>VLOOKUP(A108,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A108,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D108" s="2">
@@ -3314,13 +3319,13 @@
     </row>
     <row r="109" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C109" s="2" t="str">
-        <f>VLOOKUP(A109,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A109,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D109" s="2">
@@ -3341,13 +3346,13 @@
     </row>
     <row r="110" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C110" s="2" t="str">
-        <f>VLOOKUP(A110,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A110,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D110" s="2">
@@ -3368,13 +3373,13 @@
     </row>
     <row r="111" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C111" s="2" t="str">
-        <f>VLOOKUP(A111,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A111,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D111" s="2">
@@ -3395,13 +3400,13 @@
     </row>
     <row r="112" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C112" s="2" t="str">
-        <f>VLOOKUP(A112,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A112,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D112" s="2">
@@ -3422,13 +3427,13 @@
     </row>
     <row r="113" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C113" s="2" t="str">
-        <f>VLOOKUP(A113,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A113,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D113" s="2">
@@ -3449,13 +3454,13 @@
     </row>
     <row r="114" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C114" s="2" t="str">
-        <f>VLOOKUP(A114,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A114,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D114" s="2">
@@ -3476,13 +3481,13 @@
     </row>
     <row r="115" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C115" s="2" t="str">
-        <f>VLOOKUP(A115,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A115,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D115" s="2">
@@ -3503,13 +3508,13 @@
     </row>
     <row r="116" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C116" s="2" t="str">
-        <f>VLOOKUP(A116,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A116,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D116" s="2">
@@ -3530,13 +3535,13 @@
     </row>
     <row r="117" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C117" s="2" t="str">
-        <f>VLOOKUP(A117,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A117,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D117" s="2">
@@ -3557,13 +3562,13 @@
     </row>
     <row r="118" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C118" s="2" t="str">
-        <f>VLOOKUP(A118,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A118,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D118" s="2">
@@ -3584,13 +3589,13 @@
     </row>
     <row r="119" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C119" s="2" t="str">
-        <f>VLOOKUP(A119,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A119,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D119" s="2">
@@ -3611,13 +3616,13 @@
     </row>
     <row r="120" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C120" s="2" t="str">
-        <f>VLOOKUP(A120,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A120,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D120" s="2">
@@ -3638,13 +3643,13 @@
     </row>
     <row r="121" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C121" s="2" t="str">
-        <f>VLOOKUP(A121,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A121,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D121" s="2">
@@ -3665,13 +3670,13 @@
     </row>
     <row r="122" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C122" s="2" t="str">
-        <f>VLOOKUP(A122,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A122,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D122" s="2">
@@ -3692,13 +3697,13 @@
     </row>
     <row r="123" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C123" s="2" t="str">
-        <f>VLOOKUP(A123,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A123,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D123" s="2">
@@ -3719,13 +3724,13 @@
     </row>
     <row r="124" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C124" s="2" t="str">
-        <f>VLOOKUP(A124,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A124,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D124" s="2">
@@ -3746,13 +3751,13 @@
     </row>
     <row r="125" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C125" s="2" t="str">
-        <f>VLOOKUP(A125,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A125,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D125" s="2">
@@ -3773,13 +3778,13 @@
     </row>
     <row r="126" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C126" s="2" t="str">
-        <f>VLOOKUP(A126,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A126,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>No summarisation</v>
       </c>
       <c r="D126" s="2">
@@ -3800,13 +3805,13 @@
     </row>
     <row r="127" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C127" s="2" t="str">
-        <f>VLOOKUP(A127,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A127,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D127" s="2">
@@ -3827,13 +3832,13 @@
     </row>
     <row r="128" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C128" s="2" t="str">
-        <f>VLOOKUP(A128,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A128,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D128" s="2">
@@ -3854,13 +3859,13 @@
     </row>
     <row r="129" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C129" s="2" t="str">
-        <f>VLOOKUP(A129,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A129,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D129" s="2">
@@ -3881,13 +3886,13 @@
     </row>
     <row r="130" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C130" s="2" t="str">
-        <f>VLOOKUP(A130,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A130,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D130" s="2">
@@ -3908,13 +3913,13 @@
     </row>
     <row r="131" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C131" s="2" t="str">
-        <f>VLOOKUP(A131,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A131,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D131" s="2">
@@ -3935,13 +3940,13 @@
     </row>
     <row r="132" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C132" s="2" t="str">
-        <f>VLOOKUP(A132,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A132,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D132" s="2">
@@ -3962,13 +3967,13 @@
     </row>
     <row r="133" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C133" s="2" t="str">
-        <f>VLOOKUP(A133,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A133,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D133" s="2">
@@ -3989,13 +3994,13 @@
     </row>
     <row r="134" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C134" s="2" t="str">
-        <f>VLOOKUP(A134,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A134,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D134" s="2">
@@ -4016,13 +4021,13 @@
     </row>
     <row r="135" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C135" s="2" t="str">
-        <f>VLOOKUP(A135,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A135,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D135" s="2">
@@ -4043,13 +4048,13 @@
     </row>
     <row r="136" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C136" s="2" t="str">
-        <f>VLOOKUP(A136,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A136,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D136" s="2">
@@ -4070,13 +4075,13 @@
     </row>
     <row r="137" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C137" s="2" t="str">
-        <f>VLOOKUP(A137,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A137,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D137" s="2">
@@ -4097,13 +4102,13 @@
     </row>
     <row r="138" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C138" s="2" t="str">
-        <f>VLOOKUP(A138,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A138,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D138" s="2">
@@ -4124,13 +4129,13 @@
     </row>
     <row r="139" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C139" s="2" t="str">
-        <f>VLOOKUP(A139,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A139,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D139" s="2">
@@ -4151,13 +4156,13 @@
     </row>
     <row r="140" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C140" s="2" t="str">
-        <f>VLOOKUP(A140,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A140,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D140" s="2">
@@ -4178,13 +4183,13 @@
     </row>
     <row r="141" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C141" s="2" t="str">
-        <f>VLOOKUP(A141,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A141,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D141" s="2">
@@ -4205,13 +4210,13 @@
     </row>
     <row r="142" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C142" s="2" t="str">
-        <f>VLOOKUP(A142,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A142,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D142" s="2">
@@ -4232,13 +4237,13 @@
     </row>
     <row r="143" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C143" s="2" t="str">
-        <f>VLOOKUP(A143,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A143,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D143" s="2">
@@ -4259,13 +4264,13 @@
     </row>
     <row r="144" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C144" s="2" t="str">
-        <f>VLOOKUP(A144,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A144,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D144" s="2">
@@ -4286,13 +4291,13 @@
     </row>
     <row r="145" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C145" s="2" t="str">
-        <f>VLOOKUP(A145,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A145,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D145" s="2">
@@ -4313,13 +4318,13 @@
     </row>
     <row r="146" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C146" s="2" t="str">
-        <f>VLOOKUP(A146,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A146,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D146" s="2">
@@ -4340,13 +4345,13 @@
     </row>
     <row r="147" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C147" s="2" t="str">
-        <f>VLOOKUP(A147,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A147,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D147" s="2">
@@ -4367,13 +4372,13 @@
     </row>
     <row r="148" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C148" s="2" t="str">
-        <f>VLOOKUP(A148,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A148,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D148" s="2">
@@ -4394,13 +4399,13 @@
     </row>
     <row r="149" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C149" s="2" t="str">
-        <f>VLOOKUP(A149,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A149,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D149" s="2">
@@ -4421,13 +4426,13 @@
     </row>
     <row r="150" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C150" s="2" t="str">
-        <f>VLOOKUP(A150,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A150,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D150" s="2">
@@ -4448,13 +4453,13 @@
     </row>
     <row r="151" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C151" s="2" t="str">
-        <f>VLOOKUP(A151,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A151,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Extractive</v>
       </c>
       <c r="D151" s="2">
@@ -4478,10 +4483,10 @@
         <v>22</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C152" s="2" t="str">
-        <f>VLOOKUP(A152,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A152,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D152" s="2">
@@ -4505,10 +4510,10 @@
         <v>22</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C153" s="2" t="str">
-        <f>VLOOKUP(A153,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A153,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D153" s="2">
@@ -4532,10 +4537,10 @@
         <v>22</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C154" s="2" t="str">
-        <f>VLOOKUP(A154,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A154,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D154" s="2">
@@ -4559,10 +4564,10 @@
         <v>22</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C155" s="2" t="str">
-        <f>VLOOKUP(A155,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A155,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D155" s="2">
@@ -4586,10 +4591,10 @@
         <v>22</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C156" s="2" t="str">
-        <f>VLOOKUP(A156,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A156,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D156" s="2">
@@ -4613,10 +4618,10 @@
         <v>22</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C157" s="2" t="str">
-        <f>VLOOKUP(A157,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A157,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D157" s="2">
@@ -4640,10 +4645,10 @@
         <v>22</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C158" s="2" t="str">
-        <f>VLOOKUP(A158,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A158,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D158" s="2">
@@ -4667,10 +4672,10 @@
         <v>22</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C159" s="2" t="str">
-        <f>VLOOKUP(A159,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A159,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D159" s="2">
@@ -4694,10 +4699,10 @@
         <v>22</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C160" s="2" t="str">
-        <f>VLOOKUP(A160,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A160,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D160" s="2">
@@ -4721,10 +4726,10 @@
         <v>22</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C161" s="2" t="str">
-        <f>VLOOKUP(A161,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A161,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D161" s="2">
@@ -4748,10 +4753,10 @@
         <v>22</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C162" s="2" t="str">
-        <f>VLOOKUP(A162,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A162,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D162" s="2">
@@ -4775,10 +4780,10 @@
         <v>22</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C163" s="2" t="str">
-        <f>VLOOKUP(A163,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A163,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D163" s="2">
@@ -4802,10 +4807,10 @@
         <v>22</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C164" s="2" t="str">
-        <f>VLOOKUP(A164,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A164,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D164" s="2">
@@ -4829,10 +4834,10 @@
         <v>22</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C165" s="2" t="str">
-        <f>VLOOKUP(A165,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A165,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D165" s="2">
@@ -4856,10 +4861,10 @@
         <v>22</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C166" s="2" t="str">
-        <f>VLOOKUP(A166,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A166,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D166" s="2">
@@ -4883,10 +4888,10 @@
         <v>22</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C167" s="2" t="str">
-        <f>VLOOKUP(A167,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A167,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D167" s="2">
@@ -4910,10 +4915,10 @@
         <v>22</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C168" s="2" t="str">
-        <f>VLOOKUP(A168,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A168,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D168" s="2">
@@ -4937,10 +4942,10 @@
         <v>22</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C169" s="2" t="str">
-        <f>VLOOKUP(A169,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A169,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D169" s="2">
@@ -4964,10 +4969,10 @@
         <v>22</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C170" s="2" t="str">
-        <f>VLOOKUP(A170,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A170,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D170" s="2">
@@ -4991,10 +4996,10 @@
         <v>22</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C171" s="2" t="str">
-        <f>VLOOKUP(A171,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A171,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D171" s="2">
@@ -5018,10 +5023,10 @@
         <v>22</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C172" s="2" t="str">
-        <f>VLOOKUP(A172,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A172,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D172" s="2">
@@ -5045,10 +5050,10 @@
         <v>22</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C173" s="2" t="str">
-        <f>VLOOKUP(A173,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A173,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D173" s="2">
@@ -5072,10 +5077,10 @@
         <v>22</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C174" s="2" t="str">
-        <f>VLOOKUP(A174,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A174,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D174" s="2">
@@ -5099,10 +5104,10 @@
         <v>22</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C175" s="2" t="str">
-        <f>VLOOKUP(A175,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A175,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D175" s="2">
@@ -5126,10 +5131,10 @@
         <v>22</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C176" s="2" t="str">
-        <f>VLOOKUP(A176,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A176,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D176" s="2">
@@ -5150,13 +5155,13 @@
     </row>
     <row r="177" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C177" s="2" t="str">
-        <f>VLOOKUP(A177,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A177,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D177" s="2">
@@ -5177,13 +5182,13 @@
     </row>
     <row r="178" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C178" s="2" t="str">
-        <f>VLOOKUP(A178,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A178,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D178" s="2">
@@ -5204,13 +5209,13 @@
     </row>
     <row r="179" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C179" s="2" t="str">
-        <f>VLOOKUP(A179,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A179,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D179" s="2">
@@ -5231,13 +5236,13 @@
     </row>
     <row r="180" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C180" s="2" t="str">
-        <f>VLOOKUP(A180,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A180,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D180" s="2">
@@ -5258,13 +5263,13 @@
     </row>
     <row r="181" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C181" s="2" t="str">
-        <f>VLOOKUP(A181,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A181,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D181" s="2">
@@ -5285,13 +5290,13 @@
     </row>
     <row r="182" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C182" s="2" t="str">
-        <f>VLOOKUP(A182,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A182,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D182" s="2">
@@ -5312,13 +5317,13 @@
     </row>
     <row r="183" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C183" s="2" t="str">
-        <f>VLOOKUP(A183,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A183,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D183" s="2">
@@ -5339,13 +5344,13 @@
     </row>
     <row r="184" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C184" s="2" t="str">
-        <f>VLOOKUP(A184,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A184,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D184" s="2">
@@ -5366,13 +5371,13 @@
     </row>
     <row r="185" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C185" s="2" t="str">
-        <f>VLOOKUP(A185,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A185,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D185" s="2">
@@ -5393,13 +5398,13 @@
     </row>
     <row r="186" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C186" s="2" t="str">
-        <f>VLOOKUP(A186,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A186,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D186" s="2">
@@ -5420,13 +5425,13 @@
     </row>
     <row r="187" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C187" s="2" t="str">
-        <f>VLOOKUP(A187,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A187,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D187" s="2">
@@ -5447,13 +5452,13 @@
     </row>
     <row r="188" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C188" s="2" t="str">
-        <f>VLOOKUP(A188,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A188,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D188" s="2">
@@ -5474,13 +5479,13 @@
     </row>
     <row r="189" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C189" s="2" t="str">
-        <f>VLOOKUP(A189,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A189,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D189" s="2">
@@ -5501,13 +5506,13 @@
     </row>
     <row r="190" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C190" s="2" t="str">
-        <f>VLOOKUP(A190,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A190,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D190" s="2">
@@ -5528,13 +5533,13 @@
     </row>
     <row r="191" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C191" s="2" t="str">
-        <f>VLOOKUP(A191,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A191,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D191" s="2">
@@ -5555,13 +5560,13 @@
     </row>
     <row r="192" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C192" s="2" t="str">
-        <f>VLOOKUP(A192,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A192,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D192" s="2">
@@ -5582,13 +5587,13 @@
     </row>
     <row r="193" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C193" s="2" t="str">
-        <f>VLOOKUP(A193,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A193,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D193" s="2">
@@ -5609,13 +5614,13 @@
     </row>
     <row r="194" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C194" s="2" t="str">
-        <f>VLOOKUP(A194,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A194,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D194" s="2">
@@ -5636,13 +5641,13 @@
     </row>
     <row r="195" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C195" s="2" t="str">
-        <f>VLOOKUP(A195,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A195,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D195" s="2">
@@ -5663,13 +5668,13 @@
     </row>
     <row r="196" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C196" s="2" t="str">
-        <f>VLOOKUP(A196,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A196,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D196" s="2">
@@ -5690,13 +5695,13 @@
     </row>
     <row r="197" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C197" s="2" t="str">
-        <f>VLOOKUP(A197,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A197,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D197" s="2">
@@ -5717,13 +5722,13 @@
     </row>
     <row r="198" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C198" s="2" t="str">
-        <f>VLOOKUP(A198,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A198,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D198" s="2">
@@ -5744,13 +5749,13 @@
     </row>
     <row r="199" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C199" s="2" t="str">
-        <f>VLOOKUP(A199,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A199,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D199" s="2">
@@ -5771,13 +5776,13 @@
     </row>
     <row r="200" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C200" s="2" t="str">
-        <f>VLOOKUP(A200,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A200,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D200" s="2">
@@ -5798,13 +5803,13 @@
     </row>
     <row r="201" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C201" s="2" t="str">
-        <f>VLOOKUP(A201,Regression!$A$2:$B$9,2,FALSE)</f>
+        <f>VLOOKUP(A201,Regression!$A$2:$B$10,2,FALSE)</f>
         <v>Graph-based</v>
       </c>
       <c r="D201" s="2">
@@ -5823,9 +5828,656 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:8" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:8" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0.52</v>
+      </c>
+      <c r="F202">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G202">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H202">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>0.77</v>
+      </c>
+      <c r="F203">
+        <v>0.72</v>
+      </c>
+      <c r="G203">
+        <v>0.74</v>
+      </c>
+      <c r="H203">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0.53</v>
+      </c>
+      <c r="F204">
+        <v>0.53</v>
+      </c>
+      <c r="G204">
+        <v>0.53</v>
+      </c>
+      <c r="H204">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>0.69</v>
+      </c>
+      <c r="F205">
+        <v>0.4</v>
+      </c>
+      <c r="G205">
+        <v>0.51</v>
+      </c>
+      <c r="H205">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207">
+        <v>3</v>
+      </c>
+      <c r="E207">
+        <v>0.74</v>
+      </c>
+      <c r="F207">
+        <v>0.39</v>
+      </c>
+      <c r="G207">
+        <v>0.51</v>
+      </c>
+      <c r="H207">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208">
+        <v>4</v>
+      </c>
+      <c r="E208">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F208">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G208">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H208">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209">
+        <v>5</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210">
+        <v>6</v>
+      </c>
+      <c r="E210">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F210">
+        <v>0.13</v>
+      </c>
+      <c r="G210">
+        <v>0.21</v>
+      </c>
+      <c r="H210">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211">
+        <v>7</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212">
+        <v>8</v>
+      </c>
+      <c r="E212">
+        <v>0.45</v>
+      </c>
+      <c r="F212">
+        <v>0.3</v>
+      </c>
+      <c r="G212">
+        <v>0.36</v>
+      </c>
+      <c r="H212">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213">
+        <v>9</v>
+      </c>
+      <c r="E213">
+        <v>0.73</v>
+      </c>
+      <c r="F213">
+        <v>0.35</v>
+      </c>
+      <c r="G213">
+        <v>0.48</v>
+      </c>
+      <c r="H213">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214">
+        <v>10</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215">
+        <v>11</v>
+      </c>
+      <c r="E215">
+        <v>0.31</v>
+      </c>
+      <c r="F215">
+        <v>0.16</v>
+      </c>
+      <c r="G215">
+        <v>0.21</v>
+      </c>
+      <c r="H215">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216">
+        <v>12</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217">
+        <v>13</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218">
+        <v>14</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219">
+        <v>15</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220">
+        <v>16</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221">
+        <v>17</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222">
+        <v>18</v>
+      </c>
+      <c r="E222">
+        <v>0.42</v>
+      </c>
+      <c r="F222">
+        <v>0.15</v>
+      </c>
+      <c r="G222">
+        <v>0.23</v>
+      </c>
+      <c r="H222">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223">
+        <v>19</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224">
+        <v>20</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225">
+        <v>21</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226">
+        <v>22</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>3</v>
+      </c>
+    </row>
     <row r="362" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
@@ -5847,9 +6499,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5862,18 +6516,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>0.38022699999999998</v>
@@ -5881,10 +6535,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>0.39011699999999999</v>
@@ -5892,10 +6546,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>0.39208500000000002</v>
@@ -5903,10 +6557,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4">
         <v>0.39910899999999999</v>
@@ -5917,7 +6571,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4">
         <v>0.438527</v>
@@ -5925,39 +6579,50 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>0.45152700000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.47158499999999998</v>
+      <c r="C8" s="4">
+        <v>0.45163700000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>0.56270200000000004</v>
+        <v>0.47158499999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.56305499999999997</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C9" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:C10" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>